--- a/Guru-Payment/2 - Design & Execution/1 - Unit Testing/BugTracker.xlsx
+++ b/Guru-Payment/2 - Design & Execution/1 - Unit Testing/BugTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Payment\2 - Design &amp; Execution\1 - Unit Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Payment\2 - Design &amp; Execution\1 - Unit testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E4DA1-1AAD-4E37-B58B-91A6D2C4F2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90864A-9F69-45A3-8A4A-181660802B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Open bugs</t>
   </si>
   <si>
@@ -92,12 +89,39 @@
   <si>
     <t>Fixed bugs</t>
   </si>
+  <si>
+    <t>bug_1</t>
+  </si>
+  <si>
+    <t>TC_PY_008</t>
+  </si>
+  <si>
+    <t>IN THE PAYMENT PROCESS THE CUSTOMER ENTER THE PAYMENT INFO TO COMPLETE THE PAYMENT BUT WHEN THE CUSTOMER LEAVE THE CVV FIELD BLANK THE SYSTEM SHOULD DISPLAY A MESSAGE THAT SAY CVV FIELD CAN NOT BE BLANK BUT THIS NOT HAPPENING</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>1 - open website
+2- open the cart page and add some items
+3 - click on but button and enter the payment info but leave cvv field nlank
+4 - click puy button</t>
+  </si>
+  <si>
+    <t>message appear that tell the customer the cvv field can not be blank</t>
+  </si>
+  <si>
+    <t>nothing appears and succefully payement message appears</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,6 +158,21 @@
       <color theme="0"/>
       <name val="Agency FB"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -310,7 +341,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,34 +362,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -367,20 +405,6 @@
     <cellStyle name="Style 2" xfId="2" xr:uid="{10DDB5CD-AB9E-48C2-8F86-1C77D55DD4FC}"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -508,6 +532,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -867,7 +905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1731,7 +1769,7 @@
     <tableColumn id="4" xr3:uid="{193C1743-7E55-45BB-B973-D510DAAABA42}" name="Closed bugs" dataDxfId="22">
       <calculatedColumnFormula>COUNTIF(Bugs!B:B,"Close")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FDBA7FEE-EED8-48AA-B43B-AF8B5DC02F5F}" name="Fixed bugs" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{FDBA7FEE-EED8-48AA-B43B-AF8B5DC02F5F}" name="Fixed bugs" dataDxfId="21">
       <calculatedColumnFormula>COUNTIF(Bugs!B:B,"Fixed")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1740,7 +1778,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Style 2">
   <autoFilter ref="A1:J4" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1754,16 +1792,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F18F0091-3208-4E8E-8AE4-A1C50467C708}" name="ID" dataDxfId="19" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{913354B5-6410-4099-BC20-6D22D7CF3A67}" name="Status" dataDxfId="18" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{1145CC29-F835-49A6-B3FD-3491058DD1CC}" name="TC_ID" dataDxfId="17" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{1052D6E6-76C7-4C4A-A44E-BB5B98BCF96E}" name="Version" dataDxfId="16" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{593FEC15-9A84-4A43-B282-715043DCD664}" name="Describtion" dataDxfId="15" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{C6410553-6BC8-4D9D-AFE9-6933D29F7352}" name="Steps" dataDxfId="14" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{8317167B-00E9-48D4-A3FE-F76ED9D15499}" name="Expected" dataDxfId="13" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{2936C252-4BAE-44E0-A7CD-84F997BE7713}" name="Actual" dataDxfId="12" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{426ECECC-1703-4021-8B3F-D7E130D91F30}" name="Priority" dataDxfId="11" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{51272853-C6DA-46DC-83EB-F2D0C665B3E5}" name="Severity" dataDxfId="10" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{F18F0091-3208-4E8E-8AE4-A1C50467C708}" name="ID" dataDxfId="18" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{913354B5-6410-4099-BC20-6D22D7CF3A67}" name="Status" dataDxfId="17" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{1145CC29-F835-49A6-B3FD-3491058DD1CC}" name="TC_ID" dataDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{1052D6E6-76C7-4C4A-A44E-BB5B98BCF96E}" name="Version" dataDxfId="15" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{593FEC15-9A84-4A43-B282-715043DCD664}" name="Describtion" dataDxfId="14" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{C6410553-6BC8-4D9D-AFE9-6933D29F7352}" name="Steps" dataDxfId="13" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{8317167B-00E9-48D4-A3FE-F76ED9D15499}" name="Expected" dataDxfId="12" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{2936C252-4BAE-44E0-A7CD-84F997BE7713}" name="Actual" dataDxfId="11" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{426ECECC-1703-4021-8B3F-D7E130D91F30}" name="Priority" dataDxfId="10" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{51272853-C6DA-46DC-83EB-F2D0C665B3E5}" name="Severity" dataDxfId="9" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2034,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2048,82 +2086,82 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12">
         <f>COUNTIF(Bugs!A:A,"*Bug*")</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
         <f>COUNTIF(Bugs!B:B,"Open")</f>
         <v>1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f>COUNTIF(Bugs!B:B,"Close")</f>
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <f>COUNTIF(Bugs!B:B,"Fixed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2151,26 +2189,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C910716-8D9C-49EF-A4F1-78A2A50B9BEA}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="150" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.54296875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="4" width="20.6328125" style="1"/>
+    <col min="5" max="5" width="40.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="20.6328125" style="1"/>
+    <col min="11" max="11" width="20.6328125" style="2"/>
+    <col min="12" max="16384" width="20.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2202,25 +2235,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:11" s="22" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -2232,7 +2280,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -2244,7 +2292,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -2256,7 +2304,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -2268,7 +2316,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -2280,7 +2328,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -2292,7 +2340,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -2304,7 +2352,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -2316,40 +2364,40 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
